--- a/PJ管理/01.成果物/06.T_テスト／追加/1.仕様書/テスト仕様書兼報告書_DMS30102_パスワード変更_rev.2.0.xlsx
+++ b/PJ管理/01.成果物/06.T_テスト／追加/1.仕様書/テスト仕様書兼報告書_DMS30102_パスワード変更_rev.2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Projects\03.JTEKT\00.プロジェクト別\09.2024年度DRASAPサーバ更新2024\30.設計ドキュメント\T_テスト／移行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\06.T_テスト／追加\1.仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E67FF56-B36D-484F-88AA-6DE9B2C38CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29141EED-1309-4C1D-8140-ABF9FE224D67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="182">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1668,6 +1668,20 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>馬睿智</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>エイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1677,7 +1691,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1748,6 +1762,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1915,7 +1936,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1983,6 +2004,99 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2010,98 +2124,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2397,180 +2421,180 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="11.6" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="7.375" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.2109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.2109375" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.640625" style="60" customWidth="1"/>
-    <col min="4" max="4" width="15.78515625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="42.2109375" style="59" customWidth="1"/>
-    <col min="6" max="6" width="10.640625" style="60" customWidth="1"/>
-    <col min="7" max="7" width="15.78515625" style="36" customWidth="1"/>
-    <col min="8" max="16384" width="7.42578125" style="36"/>
+    <col min="1" max="1" width="3.25" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="51" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="27" customWidth="1"/>
+    <col min="5" max="5" width="42.25" style="50" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="51" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="27" customWidth="1"/>
+    <col min="8" max="16384" width="7.375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="26" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A2" s="37">
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="30">
         <v>45561</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-    </row>
-    <row r="3" spans="1:7" s="49" customFormat="1" ht="23.15" x14ac:dyDescent="0.65">
-      <c r="A3" s="37">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" spans="1:7" s="40" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="35">
         <v>45616</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-    </row>
-    <row r="4" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A4" s="37">
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-    </row>
-    <row r="5" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A5" s="37">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A6" s="37">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-    </row>
-    <row r="7" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A7" s="37">
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-    </row>
-    <row r="8" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A8" s="37">
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A9" s="37">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-    </row>
-    <row r="10" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A10" s="52">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="43">
         <v>9</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-    </row>
-    <row r="11" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A11" s="37">
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="28">
         <v>10</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-    </row>
-    <row r="12" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A12" s="37">
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="28">
         <v>11</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="C13" s="58"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C13" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2583,40 +2607,40 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="31.2109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="6" max="8" width="24.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
+    <col min="2" max="3" width="31.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="14.875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="24.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="74.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.2109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="45.85546875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="1"/>
+    <col min="11" max="11" width="9.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="45.875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="16" t="s">
         <v>129</v>
       </c>
@@ -2633,11 +2657,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>122</v>
       </c>
@@ -2654,27 +2678,27 @@
         <v>45531</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="27" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+    </row>
+    <row r="5" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-    </row>
-    <row r="6" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+    </row>
+    <row r="6" spans="1:14" ht="37.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -2684,13 +2708,13 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
       <c r="I6" s="15"/>
       <c r="J6" s="5" t="s">
         <v>7</v>
@@ -2708,7 +2732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
         <f>ROW()-6</f>
         <v>1</v>
@@ -2719,25 +2743,31 @@
       <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="52" t="s">
         <v>177</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="10"/>
+      <c r="K7" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="11">
+        <v>45643</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
         <f t="shared" ref="A8:A71" si="0">ROW()-6</f>
         <v>2</v>
@@ -2762,7 +2792,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="12"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2785,7 +2815,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:14" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:14" ht="63" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2808,7 +2838,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="12"/>
     </row>
-    <row r="11" spans="1:14" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2833,7 +2863,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="12"/>
     </row>
-    <row r="12" spans="1:14" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2856,7 +2886,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="12"/>
     </row>
-    <row r="13" spans="1:14" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2879,7 +2909,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" spans="1:14" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2902,7 +2932,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="12"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2929,7 +2959,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2952,7 +2982,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="12"/>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2977,7 +3007,7 @@
       <c r="M17" s="10"/>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3000,7 +3030,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="12"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3025,7 +3055,7 @@
       <c r="M19" s="10"/>
       <c r="N19" s="12"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3048,7 +3078,7 @@
       <c r="M20" s="10"/>
       <c r="N20" s="12"/>
     </row>
-    <row r="21" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3073,7 +3103,7 @@
       <c r="M21" s="10"/>
       <c r="N21" s="12"/>
     </row>
-    <row r="22" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3096,7 +3126,7 @@
       <c r="M22" s="10"/>
       <c r="N22" s="12"/>
     </row>
-    <row r="23" spans="1:14" ht="108" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:14" ht="110.25" x14ac:dyDescent="0.4">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3127,7 +3157,7 @@
       <c r="M23" s="10"/>
       <c r="N23" s="12"/>
     </row>
-    <row r="24" spans="1:14" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:14" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3150,7 +3180,7 @@
       <c r="M24" s="10"/>
       <c r="N24" s="12"/>
     </row>
-    <row r="25" spans="1:14" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:14" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3175,7 +3205,7 @@
       <c r="M25" s="10"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3198,7 +3228,7 @@
       <c r="M26" s="10"/>
       <c r="N26" s="12"/>
     </row>
-    <row r="27" spans="1:14" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:14" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3225,7 +3255,7 @@
       <c r="M27" s="10"/>
       <c r="N27" s="12"/>
     </row>
-    <row r="28" spans="1:14" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3248,7 +3278,7 @@
       <c r="M28" s="10"/>
       <c r="N28" s="12"/>
     </row>
-    <row r="29" spans="1:14" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3273,7 +3303,7 @@
       <c r="M29" s="10"/>
       <c r="N29" s="12"/>
     </row>
-    <row r="30" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3296,7 +3326,7 @@
       <c r="M30" s="10"/>
       <c r="N30" s="12"/>
     </row>
-    <row r="31" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3321,7 +3351,7 @@
       <c r="M31" s="10"/>
       <c r="N31" s="12"/>
     </row>
-    <row r="32" spans="1:14" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3344,7 +3374,7 @@
       <c r="M32" s="10"/>
       <c r="N32" s="12"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3369,7 +3399,7 @@
       <c r="M33" s="10"/>
       <c r="N33" s="12"/>
     </row>
-    <row r="34" spans="1:14" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:14" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3392,7 +3422,7 @@
       <c r="M34" s="20"/>
       <c r="N34" s="22"/>
     </row>
-    <row r="35" spans="1:14" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3419,7 +3449,7 @@
       <c r="M35" s="10"/>
       <c r="N35" s="12"/>
     </row>
-    <row r="36" spans="1:14" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3444,7 +3474,7 @@
       <c r="M36" s="10"/>
       <c r="N36" s="12"/>
     </row>
-    <row r="37" spans="1:14" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3469,7 +3499,7 @@
       <c r="M37" s="10"/>
       <c r="N37" s="12"/>
     </row>
-    <row r="38" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3494,7 +3524,7 @@
       <c r="M38" s="10"/>
       <c r="N38" s="12"/>
     </row>
-    <row r="39" spans="1:14" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3521,7 +3551,7 @@
       <c r="M39" s="10"/>
       <c r="N39" s="12"/>
     </row>
-    <row r="40" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3546,7 +3576,7 @@
       <c r="M40" s="10"/>
       <c r="N40" s="12"/>
     </row>
-    <row r="41" spans="1:14" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3573,7 +3603,7 @@
       <c r="M41" s="10"/>
       <c r="N41" s="12"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3596,7 +3626,7 @@
       <c r="M42" s="10"/>
       <c r="N42" s="12"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3619,7 +3649,7 @@
       <c r="M43" s="10"/>
       <c r="N43" s="12"/>
     </row>
-    <row r="44" spans="1:14" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:14" ht="63" x14ac:dyDescent="0.4">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3646,7 +3676,7 @@
       <c r="M44" s="10"/>
       <c r="N44" s="12"/>
     </row>
-    <row r="45" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3669,7 +3699,7 @@
       <c r="M45" s="10"/>
       <c r="N45" s="12"/>
     </row>
-    <row r="46" spans="1:14" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:14" ht="63" x14ac:dyDescent="0.4">
       <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3694,7 +3724,7 @@
       <c r="M46" s="10"/>
       <c r="N46" s="12"/>
     </row>
-    <row r="47" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3717,7 +3747,7 @@
       <c r="M47" s="10"/>
       <c r="N47" s="12"/>
     </row>
-    <row r="48" spans="1:14" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:14" ht="63" x14ac:dyDescent="0.4">
       <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3742,7 +3772,7 @@
       <c r="M48" s="10"/>
       <c r="N48" s="12"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3765,7 +3795,7 @@
       <c r="M49" s="10"/>
       <c r="N49" s="12"/>
     </row>
-    <row r="50" spans="1:14" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:14" ht="63" x14ac:dyDescent="0.4">
       <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3790,7 +3820,7 @@
       <c r="M50" s="10"/>
       <c r="N50" s="12"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3813,7 +3843,7 @@
       <c r="M51" s="10"/>
       <c r="N51" s="12"/>
     </row>
-    <row r="52" spans="1:14" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:14" ht="63" x14ac:dyDescent="0.4">
       <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3838,7 +3868,7 @@
       <c r="M52" s="10"/>
       <c r="N52" s="12"/>
     </row>
-    <row r="53" spans="1:14" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:14" ht="63" x14ac:dyDescent="0.4">
       <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3861,7 +3891,7 @@
       <c r="M53" s="10"/>
       <c r="N53" s="12"/>
     </row>
-    <row r="54" spans="1:14" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:14" ht="63" x14ac:dyDescent="0.4">
       <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3886,7 +3916,7 @@
       <c r="M54" s="10"/>
       <c r="N54" s="12"/>
     </row>
-    <row r="55" spans="1:14" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:14" ht="63" x14ac:dyDescent="0.4">
       <c r="A55" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3909,7 +3939,7 @@
       <c r="M55" s="10"/>
       <c r="N55" s="12"/>
     </row>
-    <row r="56" spans="1:14" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:14" ht="63" x14ac:dyDescent="0.4">
       <c r="A56" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3934,7 +3964,7 @@
       <c r="M56" s="10"/>
       <c r="N56" s="12"/>
     </row>
-    <row r="57" spans="1:14" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:14" ht="63" x14ac:dyDescent="0.4">
       <c r="A57" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3957,7 +3987,7 @@
       <c r="M57" s="10"/>
       <c r="N57" s="12"/>
     </row>
-    <row r="58" spans="1:14" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:14" ht="63" x14ac:dyDescent="0.4">
       <c r="A58" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3982,7 +4012,7 @@
       <c r="M58" s="10"/>
       <c r="N58" s="12"/>
     </row>
-    <row r="59" spans="1:14" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:14" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A59" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4005,7 +4035,7 @@
       <c r="M59" s="10"/>
       <c r="N59" s="12"/>
     </row>
-    <row r="60" spans="1:14" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:14" ht="63" x14ac:dyDescent="0.4">
       <c r="A60" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4030,7 +4060,7 @@
       <c r="M60" s="10"/>
       <c r="N60" s="12"/>
     </row>
-    <row r="61" spans="1:14" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:14" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A61" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4053,7 +4083,7 @@
       <c r="M61" s="10"/>
       <c r="N61" s="12"/>
     </row>
-    <row r="62" spans="1:14" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:14" ht="63" x14ac:dyDescent="0.4">
       <c r="A62" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4078,7 +4108,7 @@
       <c r="M62" s="10"/>
       <c r="N62" s="12"/>
     </row>
-    <row r="63" spans="1:14" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:14" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A63" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4101,7 +4131,7 @@
       <c r="M63" s="10"/>
       <c r="N63" s="12"/>
     </row>
-    <row r="64" spans="1:14" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:14" ht="63" x14ac:dyDescent="0.4">
       <c r="A64" s="6">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4126,7 +4156,7 @@
       <c r="M64" s="10"/>
       <c r="N64" s="12"/>
     </row>
-    <row r="65" spans="1:14" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:14" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A65" s="6">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4149,7 +4179,7 @@
       <c r="M65" s="10"/>
       <c r="N65" s="12"/>
     </row>
-    <row r="66" spans="1:14" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A66" s="6">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4176,7 +4206,7 @@
       <c r="M66" s="10"/>
       <c r="N66" s="12"/>
     </row>
-    <row r="67" spans="1:14" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A67" s="6">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4201,7 +4231,7 @@
       <c r="M67" s="10"/>
       <c r="N67" s="12"/>
     </row>
-    <row r="68" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A68" s="6">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4226,7 +4256,7 @@
       <c r="M68" s="10"/>
       <c r="N68" s="12"/>
     </row>
-    <row r="69" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A69" s="6">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4249,7 +4279,7 @@
       <c r="M69" s="10"/>
       <c r="N69" s="12"/>
     </row>
-    <row r="70" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A70" s="6">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4272,7 +4302,7 @@
       <c r="M70" s="10"/>
       <c r="N70" s="12"/>
     </row>
-    <row r="71" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A71" s="6">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -4295,7 +4325,7 @@
       <c r="M71" s="10"/>
       <c r="N71" s="12"/>
     </row>
-    <row r="72" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A72" s="6">
         <f t="shared" ref="A72:A85" si="1">ROW()-6</f>
         <v>66</v>
@@ -4318,7 +4348,7 @@
       <c r="M72" s="10"/>
       <c r="N72" s="12"/>
     </row>
-    <row r="73" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A73" s="6">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -4341,7 +4371,7 @@
       <c r="M73" s="10"/>
       <c r="N73" s="12"/>
     </row>
-    <row r="74" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A74" s="6">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4364,7 +4394,7 @@
       <c r="M74" s="10"/>
       <c r="N74" s="12"/>
     </row>
-    <row r="75" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A75" s="6">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4387,7 +4417,7 @@
       <c r="M75" s="10"/>
       <c r="N75" s="12"/>
     </row>
-    <row r="76" spans="1:14" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A76" s="6">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4412,7 +4442,7 @@
       <c r="M76" s="10"/>
       <c r="N76" s="12"/>
     </row>
-    <row r="77" spans="1:14" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:14" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A77" s="6">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4437,7 +4467,7 @@
       <c r="M77" s="10"/>
       <c r="N77" s="12"/>
     </row>
-    <row r="78" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A78" s="6">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4462,7 +4492,7 @@
       <c r="M78" s="10"/>
       <c r="N78" s="12"/>
     </row>
-    <row r="79" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A79" s="6">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4485,7 +4515,7 @@
       <c r="M79" s="10"/>
       <c r="N79" s="12"/>
     </row>
-    <row r="80" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A80" s="6">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4508,7 +4538,7 @@
       <c r="M80" s="10"/>
       <c r="N80" s="12"/>
     </row>
-    <row r="81" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A81" s="6">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4531,7 +4561,7 @@
       <c r="M81" s="10"/>
       <c r="N81" s="12"/>
     </row>
-    <row r="82" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A82" s="6">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4554,7 +4584,7 @@
       <c r="M82" s="10"/>
       <c r="N82" s="12"/>
     </row>
-    <row r="83" spans="1:14" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A83" s="6">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4577,7 +4607,7 @@
       <c r="M83" s="10"/>
       <c r="N83" s="12"/>
     </row>
-    <row r="84" spans="1:14" ht="108" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:14" ht="110.25" x14ac:dyDescent="0.4">
       <c r="A84" s="6">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4602,7 +4632,7 @@
       <c r="M84" s="10"/>
       <c r="N84" s="12"/>
     </row>
-    <row r="85" spans="1:14" ht="108" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:14" ht="110.25" x14ac:dyDescent="0.4">
       <c r="A85" s="6">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4641,6 +4671,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B932A2821493BB4AB71A0C79347FD678" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="528594b33024f52b27c0b5dcdc9dfa0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xmlns:ns3="e8618445-b921-4c48-afdf-14e883213c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25e4712d85e376121aa3366c94b400a9" ns2:_="" ns3:_="">
     <xsd:import namespace="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
@@ -4863,34 +4913,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0230723B-79A0-46B9-9FDC-875C04ADA32A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{813B3977-5A91-47FB-B1CD-4E819CB299DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{487EC77E-0890-4297-9E59-4FE13AE81F96}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{487EC77E-0890-4297-9E59-4FE13AE81F96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{813B3977-5A91-47FB-B1CD-4E819CB299DC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0230723B-79A0-46B9-9FDC-875C04ADA32A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>